--- a/functions/templates/INVOICE.xlsx
+++ b/functions/templates/INVOICE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itwab\WebstormProjects\Firebase-Cloud-Functions\functions\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C01C2D-6977-450D-A5CC-D992F904ADAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5675FF-EF97-4F4A-9856-C83A85F33CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28560" yWindow="2070" windowWidth="21600" windowHeight="11775" xr2:uid="{865486AF-EF78-404E-A4E3-CFE18021C6DB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{865486AF-EF78-404E-A4E3-CFE18021C6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t xml:space="preserve">DATE                                            </t>
   </si>
   <si>
-    <t>QUOTATION NUMBER</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>${table:item.quantity}</t>
+  </si>
+  <si>
+    <t>INVOICE NUMBER</t>
   </si>
 </sst>
 </file>
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC825F3-177E-4B74-8210-F411CB8214BE}">
   <dimension ref="B1:L153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15" customHeight="1"/>
@@ -913,21 +913,21 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G12" s="6"/>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="2:9" ht="14.25" customHeight="1">
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="7"/>
@@ -948,19 +948,19 @@
     </row>
     <row r="18" spans="2:12" ht="14.25" customHeight="1">
       <c r="B18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="E18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="F18" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>7</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="2"/>
@@ -971,16 +971,16 @@
     </row>
     <row r="19" spans="2:12" ht="15.75" customHeight="1">
       <c r="B19" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="D19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="E19" s="20" t="s">
         <v>18</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>19</v>
       </c>
       <c r="F19" s="21" t="e">
         <f>E19*D19</f>
@@ -997,7 +997,7 @@
       <c r="B20" s="22"/>
       <c r="C20" s="23"/>
       <c r="D20" s="24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="25"/>
@@ -1125,7 +1125,7 @@
       <c r="C35" s="44"/>
       <c r="D35" s="7"/>
       <c r="E35" s="45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" s="46" t="e">
         <f>SUM(F19:F34)</f>
@@ -1135,7 +1135,7 @@
     <row r="36" spans="2:7" ht="14.25" customHeight="1">
       <c r="C36" s="44"/>
       <c r="E36" s="45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F36" s="47">
         <v>0</v>
@@ -1144,7 +1144,7 @@
     <row r="37" spans="2:7" ht="14.25" hidden="1" customHeight="1">
       <c r="C37" s="44"/>
       <c r="E37" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F37" s="47">
         <v>0</v>
@@ -1158,7 +1158,7 @@
     <row r="39" spans="2:7" ht="14.25" customHeight="1">
       <c r="C39" s="44"/>
       <c r="E39" s="45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F39" s="46" t="e">
         <f>F35+F36</f>
